--- a/XAutomateMVC/Rules/ref_2.xlsx
+++ b/XAutomateMVC/Rules/ref_2.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <x:si>
+    <x:t>R Id</x:t>
+  </x:si>
   <x:si>
     <x:t>Test Approach</x:t>
   </x:si>
@@ -38,6 +41,9 @@
   </x:si>
   <x:si>
     <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
   </x:si>
   <x:si>
     <x:t>Reference_table_uniqueness_check</x:t>
@@ -125,17 +131,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ref_2" displayName="ref_2" ref="A1:H2" totalsRowShown="0">
-  <x:autoFilter ref="A1:H2"/>
-  <x:tableColumns count="8">
-    <x:tableColumn id="1" name="Test Approach"/>
-    <x:tableColumn id="2" name="Rule Name"/>
-    <x:tableColumn id="3" name="Parameter"/>
-    <x:tableColumn id="4" name="Query"/>
-    <x:tableColumn id="5" name="Parameter Name 0"/>
-    <x:tableColumn id="6" name="Parameter Name 1"/>
-    <x:tableColumn id="7" name="Parameter Name 2"/>
-    <x:tableColumn id="8" name="Description"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ref_2" displayName="ref_2" ref="A1:I2" totalsRowShown="0">
+  <x:autoFilter ref="A1:I2"/>
+  <x:tableColumns count="9">
+    <x:tableColumn id="1" name="R Id"/>
+    <x:tableColumn id="2" name="Test Approach"/>
+    <x:tableColumn id="3" name="Rule Name"/>
+    <x:tableColumn id="4" name="Parameter"/>
+    <x:tableColumn id="5" name="Query"/>
+    <x:tableColumn id="6" name="Parameter Name 0"/>
+    <x:tableColumn id="7" name="Parameter Name 1"/>
+    <x:tableColumn id="8" name="Parameter Name 2"/>
+    <x:tableColumn id="9" name="Description"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -429,13 +436,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:I2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -460,31 +467,37 @@
       <x:c r="H1" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
+    <x:row r="2" spans="1:9">
       <x:c r="A2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
